--- a/pred_ohlcv/54_21/2020-01-13 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BSV ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-662.5328012300001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-766.3849279900002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-681.5985279900002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-681.5985279900002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-515.1523279900002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-401.2945279900002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-172.4007279900002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>163.0572741399998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>106.3987741399998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>106.3987741399998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>125.5052756199998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>265.5575828199998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-31.00436114000024</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>18.03462017999976</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>151.8916201799998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>149.8916201799998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>148.4044201799998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>17.22472017999976</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>89.02392017999976</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-66.89187982000023</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>73.02312017999976</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>124.1321201799998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>124.1321201799998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>314.1826201799997</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>90.30282017999974</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>145.8671201799997</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>158.5196201799997</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>184.9493201799997</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>237.0123196799997</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>248.7529196799997</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>302.6028196799998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>293.9228196799997</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>302.6498196799997</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>267.5933196799997</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>278.5103196799997</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>256.7247196799997</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>161.7166302299997</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>161.7166302299997</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>191.0991302299997</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>191.0991302299997</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>229.8055302299997</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>269.3724582399997</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>266.0641582399997</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>267.7351582399997</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>226.2200582399997</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>254.9935582399997</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>254.9935582399997</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>193.3683582399997</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>181.0258582399997</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>139.1134582399997</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>137.9034582399997</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>138.3834582399996</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>127.6759582399996</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>171.2962582399996</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>148.7722582399996</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>148.3522582399997</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>73.35835823999966</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>64.63855823999967</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>107.3367582399997</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>85.72445823999966</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>91.97255823999966</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>92.28255823999966</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>46.36115823999966</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>56.95045823999966</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>75.61505823999966</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>75.61505823999966</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>59.11235823999964</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>67.31335823999964</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>81.93605823999964</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>92.91915823999963</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>94.78915823999964</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>70.02015823999963</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>70.02015823999963</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>73.16335823999962</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>73.16335823999962</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>122.1593927899997</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-536.3627700100004</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-667.6537700100005</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-640.6563700100005</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-695.8850700100005</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-557.3308563100007</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-631.1955563100007</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-661.2699563100007</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-309.7379323900007</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-589.5631575000006</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-428.2120575000006</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-440.0533575000006</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1830.09695853</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2054.60455853</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-2107.09665853</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-2084.74815853</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1781.61876087</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1931.66820494</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1777.68400494</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1740.64854115</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1794.537741150001</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1608.895441150001</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1612.857864980001</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1765.864564980001</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1719.64073368</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1348.239064980001</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1278.329664980001</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1314.013762670001</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1429.428562670001</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1429.428562670001</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1416.000034430001</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1378.033634430001</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1458.629034430001</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1458.629034430001</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1265.248831780001</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-978.1461317800006</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-568.6468720800004</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-568.6468720800004</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-499.8801670300005</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-499.8801670300005</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-394.8264670300005</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-586.7927670300005</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-529.9405670300005</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-706.3995670300005</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-681.9636670300006</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-522.6302509400006</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-553.2778509400006</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-358.0744607700005</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-394.3720607700005</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-154.2115143800007</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-230.8427143800007</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-80.96070583000065</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-37.26790493000065</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-4.85701439000065</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-4.85701439000065</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>237.5305746099993</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>237.5305746099993</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>126.2534742199993</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>57.78468204999935</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-108.2090179500006</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-101.3572151400006</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>45.76510767999935</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>18.20440767999935</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>78.61870767999935</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>136.2535076799994</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>136.2535076799994</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>86.16730840999935</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-0.2821915900006502</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-32.10739159000065</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-72.61479159000064</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-5.875271440000631</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-27.38537144000063</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-58.94987335000063</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-79.34267335000064</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-79.34267335000064</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-55.15517335000064</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-16.76647526000064</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>16.86831213999936</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>9.06831213999936</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>9.06831213999936</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>73.87471213999936</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>73.87471213999936</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>84.87471213999936</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>121.7637657199994</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>112.1693657199993</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>112.1693657199993</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>30.04856571999935</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>87.39856571999934</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>161.1205743599994</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>446.9964657199994</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>580.2316222199994</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>567.0107222199994</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>561.6076222199994</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>568.7729222199994</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>493.2912824799994</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>639.2352169799994</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>516.6470183799995</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>461.1189183799995</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>397.4867183799995</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>397.4867183799995</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>673.5825183799996</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>589.6819183799996</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>595.0905183799996</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>585.3748183799996</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>751.6825183799997</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>751.5897183799997</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>636.4841183799997</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>555.3562183799997</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>555.3562183799997</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>670.6163183799997</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>588.3263183799997</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>554.7397183799998</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>517.5557183799998</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>515.1350183799998</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>517.1251924099998</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>382.9374924099998</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>438.1647924099998</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>438.1647924099998</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>368.6056924099998</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>363.0082924099999</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>469.3360924099999</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>469.3360924099999</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>359.5961924099998</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>415.2236924099998</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>419.6756924099998</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>407.2299924099999</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>397.4187924099999</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>358.2150924099999</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>332.0255924099999</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>332.0255924099999</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>332.8255924099999</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>435.5472924099999</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>435.5472924099999</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>705.6901869999999</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>877.0192457799999</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>877.0192457799999</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>887.6371457799999</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>991.6213402999998</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>1420.37114213</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>2298.04594049</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>5437.47090314</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>4715.68460314</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5487.69097086</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5487.69097086</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5245.035170859999</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>4799.040488219999</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>4514.610488219999</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>4194.944988219999</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>3962.544788219999</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>4006.450888219999</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>4073.547188219999</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>4011.880788219999</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>4027.837388219999</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>4021.619419799999</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>4021.619419799999</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>4342.167258629999</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>4192.270469499999</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>4516.627398940001</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BSV ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-662.5328012300001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-766.3849279900002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-681.5985279900002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-681.5985279900002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-515.1523279900002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-401.2945279900002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-172.4007279900002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>163.0572741399998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>106.3987741399998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>106.3987741399998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>125.5052756199998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>265.5575828199998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-31.00436114000024</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>18.03462017999976</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>151.8916201799998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>149.8916201799998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>148.4044201799998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>17.22472017999976</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>89.02392017999976</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-66.89187982000023</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>73.02312017999976</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>124.1321201799998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>124.1321201799998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>314.1826201799997</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>90.30282017999974</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>145.8671201799997</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>158.5196201799997</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>184.9493201799997</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>237.0123196799997</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>248.7529196799997</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>302.6028196799998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>293.9228196799997</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>302.6498196799997</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>267.5933196799997</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>278.5103196799997</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>256.7247196799997</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>161.7166302299997</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>161.7166302299997</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>191.0991302299997</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>191.0991302299997</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>229.8055302299997</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>269.3724582399997</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>266.0641582399997</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>267.7351582399997</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>226.2200582399997</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>254.9935582399997</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>254.9935582399997</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>193.3683582399997</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>181.0258582399997</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>139.1134582399997</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>137.9034582399997</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>138.3834582399996</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>127.6759582399996</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>171.2962582399996</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>148.7722582399996</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>148.3522582399997</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>73.35835823999966</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>64.63855823999967</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>107.3367582399997</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>85.72445823999966</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>91.97255823999966</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>92.28255823999966</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>46.36115823999966</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>56.95045823999966</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>75.61505823999966</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>75.61505823999966</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>59.11235823999964</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>67.31335823999964</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>81.93605823999964</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>92.91915823999963</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>94.78915823999964</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>70.02015823999963</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>70.02015823999963</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>73.16335823999962</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>73.16335823999962</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>122.1593927899997</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-536.3627700100004</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-667.6537700100005</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-640.6563700100005</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-695.8850700100005</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-557.3308563100007</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-631.1955563100007</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-661.2699563100007</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-309.7379323900007</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-589.5631575000006</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-428.2120575000006</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-440.0533575000006</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1830.09695853</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2054.60455853</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-2107.09665853</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-2084.74815853</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1781.61876087</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1931.66820494</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1777.68400494</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1740.64854115</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1794.537741150001</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1608.895441150001</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1612.857864980001</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1765.864564980001</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1348.239064980001</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1278.329664980001</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1314.013762670001</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1429.428562670001</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1429.428562670001</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1416.000034430001</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1378.033634430001</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1458.629034430001</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1458.629034430001</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1265.248831780001</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1169.695131780001</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-920.1443317800006</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1008.567128920001</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-894.1756791000006</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-881.5943879000006</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-861.8088791000006</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-568.6468720800004</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-568.6468720800004</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-499.8801670300005</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-499.8801670300005</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-394.8264670300005</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-586.7927670300005</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-529.9405670300005</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-706.3995670300005</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-681.9636670300006</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-522.6302509400006</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-553.2778509400006</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-358.0744607700005</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-394.3720607700005</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-154.2115143800007</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-230.8427143800007</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-80.96070583000065</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-37.26790493000065</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-4.85701439000065</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-4.85701439000065</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>237.5305746099993</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>237.5305746099993</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>126.2534742199993</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>57.78468204999935</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-108.2090179500006</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-101.3572151400006</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>45.76510767999935</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>18.20440767999935</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>78.61870767999935</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>136.2535076799994</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>136.2535076799994</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>86.16730840999935</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-0.2821915900006502</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-32.10739159000065</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-72.61479159000064</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-5.875271440000631</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-27.38537144000063</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-58.94987335000063</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-79.34267335000064</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-79.34267335000064</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-55.15517335000064</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-16.76647526000064</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>16.86831213999936</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>9.06831213999936</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>9.06831213999936</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>73.87471213999936</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>73.87471213999936</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>84.87471213999936</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>121.7637657199994</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>112.1693657199993</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>112.1693657199993</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>30.04856571999935</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>87.39856571999934</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>161.1205743599994</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>446.9964657199994</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>580.2316222199994</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>567.0107222199994</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>561.6076222199994</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>568.7729222199994</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>493.2912824799994</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>639.2352169799994</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>516.6470183799995</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>461.1189183799995</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>397.4867183799995</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>397.4867183799995</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>673.5825183799996</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>589.6819183799996</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>595.0905183799996</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>585.3748183799996</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>751.6825183799997</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>751.5897183799997</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>636.4841183799997</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>555.3562183799997</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>555.3562183799997</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>670.6163183799997</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>588.3263183799997</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>554.7397183799998</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>517.5557183799998</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>515.1350183799998</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>517.1251924099998</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>382.9374924099998</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>438.1647924099998</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>438.1647924099998</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>368.6056924099998</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>363.0082924099999</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>469.3360924099999</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>469.3360924099999</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>359.5961924099998</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>415.2236924099998</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>419.6756924099998</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>407.2299924099999</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>397.4187924099999</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>358.2150924099999</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>332.0255924099999</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>332.0255924099999</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>332.8255924099999</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>435.5472924099999</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>435.5472924099999</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>705.6901869999999</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>877.0192457799999</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>877.0192457799999</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>887.6371457799999</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>991.6213402999998</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>1420.37114213</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>2298.04594049</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>2916.63224562</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>3743.94910603</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>3774.80920603</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>3907.19088417</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>4692.61288169</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>5437.47090314</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>4715.68460314</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5487.69097086</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5487.69097086</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5245.035170859999</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>4799.040488219999</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>4514.610488219999</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>4194.944988219999</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>3962.544788219999</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>4006.450888219999</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>4073.547188219999</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>4011.880788219999</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>4027.837388219999</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>4062.306188219999</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>4021.619419799999</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>4021.619419799999</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>4202.666772309999</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>4129.531072309999</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>4325.624972309999</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>4264.916241569999</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>4342.167258629999</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>4238.842958629999</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>4192.270469499999</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>4128.123669499999</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>4189.680174859999</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>4307.771592319999</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>4328.258392319999</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>4327.198292319999</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>4419.79639232</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>4584.085291939999</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>4544.49419194</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4585.82829194</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>4575.12749194</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4575.12749194</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4553.04969194</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>4516.49009894</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>4516.627398940001</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>4497.73299894</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>4523.580698940001</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>4444.272898940001</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>4457.177898940001</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>4483.803342480001</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>4472.13814248</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>4459.36004248</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>4494.35417921</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>4686.11634248</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>4685.96474248</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>4684.12004248</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>4621.75341921</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>4609.34091921</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4480.42581921</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>4564.331619209999</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4564.331619209999</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>4265.154598329999</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>4652.157317409999</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
